--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5335208148587</v>
+        <v>327.3338170963107</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.9971188599243</v>
+        <v>447.8725694999927</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.0170429547118</v>
+        <v>405.1282400600118</v>
       </c>
       <c r="AD2" t="n">
-        <v>275533.5208148587</v>
+        <v>327333.8170963107</v>
       </c>
       <c r="AE2" t="n">
-        <v>376997.1188599243</v>
+        <v>447872.5694999926</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.307395636081811e-06</v>
+        <v>3.326490178062693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.1712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>341017.0429547118</v>
+        <v>405128.2400600118</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.5947503451823</v>
+        <v>214.7615893225991</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.7835076482773</v>
+        <v>293.8462811236802</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.3760991991161</v>
+        <v>265.8020044691686</v>
       </c>
       <c r="AD3" t="n">
-        <v>171594.7503451823</v>
+        <v>214761.5893225991</v>
       </c>
       <c r="AE3" t="n">
-        <v>234783.5076482773</v>
+        <v>293846.2811236802</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179831195580867e-06</v>
+        <v>4.584249477891472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>212376.0991991161</v>
+        <v>265802.0044691686</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.6569383884631</v>
+        <v>190.7384365113083</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0307372673801</v>
+        <v>260.9767436205854</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.7492072545593</v>
+        <v>236.0694894926731</v>
       </c>
       <c r="AD4" t="n">
-        <v>147656.9383884631</v>
+        <v>190738.4365113083</v>
       </c>
       <c r="AE4" t="n">
-        <v>202030.7372673801</v>
+        <v>260976.7436205854</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.441530352394243e-06</v>
+        <v>4.961531839500358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>182749.2072545593</v>
+        <v>236069.4894926731</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.022106156769</v>
+        <v>191.1036042796143</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.530375918041</v>
+        <v>261.4763822712463</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.2011610936486</v>
+        <v>236.5214433317623</v>
       </c>
       <c r="AD5" t="n">
-        <v>148022.106156769</v>
+        <v>191103.6042796143</v>
       </c>
       <c r="AE5" t="n">
-        <v>202530.375918041</v>
+        <v>261476.3822712463</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.439954800577184e-06</v>
+        <v>4.959260422512947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.836805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>183201.1610936486</v>
+        <v>236521.4433317623</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.7732228644996</v>
+        <v>262.1071719939281</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.7574662982869</v>
+        <v>358.6265960744215</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.1034203920219</v>
+        <v>324.3997770806668</v>
       </c>
       <c r="AD2" t="n">
-        <v>211773.2228644995</v>
+        <v>262107.1719939281</v>
       </c>
       <c r="AE2" t="n">
-        <v>289757.4662982869</v>
+        <v>358626.5960744215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.738480650999099e-06</v>
+        <v>4.009032654288152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>262103.4203920219</v>
+        <v>324399.7770806667</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9091418281859</v>
+        <v>182.9109187486288</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.7981043218393</v>
+        <v>250.2667884919809</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.3977238392563</v>
+        <v>226.3816774500227</v>
       </c>
       <c r="AD3" t="n">
-        <v>140909.1418281859</v>
+        <v>182910.9187486288</v>
       </c>
       <c r="AE3" t="n">
-        <v>192798.1043218393</v>
+        <v>250266.7884919809</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526693671229135e-06</v>
+        <v>5.16294686415647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.917824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>174397.7238392563</v>
+        <v>226381.6774500227</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.6044304802373</v>
+        <v>182.6062074006803</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.3811848126604</v>
+        <v>249.849868982802</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.0205945428831</v>
+        <v>226.0045481536495</v>
       </c>
       <c r="AD4" t="n">
-        <v>140604.4304802374</v>
+        <v>182606.2074006803</v>
       </c>
       <c r="AE4" t="n">
-        <v>192381.1848126604</v>
+        <v>249849.868982802</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.543209852518763e-06</v>
+        <v>5.187125932243039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.871527777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>174020.5945428831</v>
+        <v>226004.5481536495</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.3224742502626</v>
+        <v>171.1589179214614</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.0494469246926</v>
+        <v>234.1871824985732</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.7703418147454</v>
+        <v>211.8366864847519</v>
       </c>
       <c r="AD2" t="n">
-        <v>132322.4742502626</v>
+        <v>171158.9179214614</v>
       </c>
       <c r="AE2" t="n">
-        <v>181049.4469246926</v>
+        <v>234187.1824985732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.64203878425705e-06</v>
+        <v>5.634683546709616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>163770.3418147454</v>
+        <v>211836.6864847519</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.2704101542588</v>
+        <v>180.207145512389</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.92416346672</v>
+        <v>246.5673666681027</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.6071906727656</v>
+        <v>223.0353232528432</v>
       </c>
       <c r="AD2" t="n">
-        <v>140270.4101542588</v>
+        <v>180207.145512389</v>
       </c>
       <c r="AE2" t="n">
-        <v>191924.16346672</v>
+        <v>246567.3666681027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582063737492808e-06</v>
+        <v>5.41355132103848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.369212962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>173607.1906727656</v>
+        <v>223035.3232528432</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.8117499362786</v>
+        <v>169.8977014918075</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.5601160880476</v>
+        <v>232.4615305385797</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.5642032544425</v>
+        <v>210.275728325852</v>
       </c>
       <c r="AD3" t="n">
-        <v>137811.7499362786</v>
+        <v>169897.7014918075</v>
       </c>
       <c r="AE3" t="n">
-        <v>188560.1160880476</v>
+        <v>232461.5305385797</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.656183800580997e-06</v>
+        <v>5.52556852532401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>170564.2032544425</v>
+        <v>210275.728325852</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8875739252143</v>
+        <v>175.596380764899</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.6638618148277</v>
+        <v>240.2587149280055</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.6580476346668</v>
+        <v>217.3287603805705</v>
       </c>
       <c r="AD2" t="n">
-        <v>137887.5739252143</v>
+        <v>175596.380764899</v>
       </c>
       <c r="AE2" t="n">
-        <v>188663.8618148277</v>
+        <v>240258.7149280055</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522526638008981e-06</v>
+        <v>5.567311047034848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>170658.0476346668</v>
+        <v>217328.7603805705</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.733335311331</v>
+        <v>281.8819321692728</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.7535756740698</v>
+        <v>385.683295347176</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.6683221361566</v>
+        <v>348.8742229491455</v>
       </c>
       <c r="AD2" t="n">
-        <v>222733.335311331</v>
+        <v>281881.9321692728</v>
       </c>
       <c r="AE2" t="n">
-        <v>304753.5756740698</v>
+        <v>385683.295347176</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619443075459809e-06</v>
+        <v>3.818850144289122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.89236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>275668.3221361566</v>
+        <v>348874.2229491455</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.1180028822939</v>
+        <v>188.0148230006058</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.8710507498832</v>
+        <v>257.2501754578963</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.7458136257531</v>
+        <v>232.6985797651585</v>
       </c>
       <c r="AD3" t="n">
-        <v>154118.0028822939</v>
+        <v>188014.8230006058</v>
       </c>
       <c r="AE3" t="n">
-        <v>210871.0507498832</v>
+        <v>257250.1754578963</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.446933170766007e-06</v>
+        <v>5.0252366084436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.039351851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>190745.8136257531</v>
+        <v>232698.5797651585</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.8380908084125</v>
+        <v>184.123663216042</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.0691332989213</v>
+        <v>251.9261189748046</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.5474475946664</v>
+        <v>227.8826437604512</v>
       </c>
       <c r="AD4" t="n">
-        <v>141838.0908084125</v>
+        <v>184123.663216042</v>
       </c>
       <c r="AE4" t="n">
-        <v>194069.1332989213</v>
+        <v>251926.1189748046</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527426221223601e-06</v>
+        <v>5.142586323058145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>175547.4475946664</v>
+        <v>227882.6437604512</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.9908278676996</v>
+        <v>181.5176588993902</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.4368942972929</v>
+        <v>248.3604688999671</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5481801749454</v>
+        <v>224.6572943243338</v>
       </c>
       <c r="AD2" t="n">
-        <v>136990.8278676996</v>
+        <v>181517.6588993902</v>
       </c>
       <c r="AE2" t="n">
-        <v>187436.8942972929</v>
+        <v>248360.4688999671</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409715565955713e-06</v>
+        <v>5.46316527093004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>169548.1801749454</v>
+        <v>224657.2943243338</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.0529349544467</v>
+        <v>215.1337477182901</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.1469042781224</v>
+        <v>294.355484659134</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.4184979751667</v>
+        <v>266.2626103338705</v>
       </c>
       <c r="AD2" t="n">
-        <v>174052.9349544467</v>
+        <v>215133.7477182901</v>
       </c>
       <c r="AE2" t="n">
-        <v>238146.9042781224</v>
+        <v>294355.4846591341</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129744942416603e-06</v>
+        <v>4.647180486497666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>215418.4979751667</v>
+        <v>266262.6103338705</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.0565270471993</v>
+        <v>176.1372503024916</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.790298579356</v>
+        <v>240.9987564908193</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.1541718378071</v>
+        <v>217.9981734152844</v>
       </c>
       <c r="AD3" t="n">
-        <v>135056.5270471993</v>
+        <v>176137.2503024916</v>
       </c>
       <c r="AE3" t="n">
-        <v>184790.298579356</v>
+        <v>240998.7564908193</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602800360007866e-06</v>
+        <v>5.349593605173294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>167154.1718378071</v>
+        <v>217998.1734152844</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.9764414204489</v>
+        <v>243.7690615372329</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.3530777230497</v>
+        <v>333.5355843270783</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.9783278492235</v>
+        <v>301.7034162791339</v>
       </c>
       <c r="AD2" t="n">
-        <v>201976.4414204489</v>
+        <v>243769.0615372329</v>
       </c>
       <c r="AE2" t="n">
-        <v>276353.0777230497</v>
+        <v>333535.5843270783</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.85580975830418e-06</v>
+        <v>4.199303980958867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>249978.3278492235</v>
+        <v>301703.4162791339</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.0362876708422</v>
+        <v>179.7434774245035</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.8673385223832</v>
+        <v>245.9329555346658</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.8421048108346</v>
+        <v>222.4614594275797</v>
       </c>
       <c r="AD3" t="n">
-        <v>138036.2876708422</v>
+        <v>179743.4774245035</v>
       </c>
       <c r="AE3" t="n">
-        <v>188867.3385223832</v>
+        <v>245932.9555346658</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.573573966234405e-06</v>
+        <v>5.254734962307219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.883101851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>170842.1048108346</v>
+        <v>222461.4594275797</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.5115250961993</v>
+        <v>180.2187148498606</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.5175793337519</v>
+        <v>246.5831963460346</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.4302875517852</v>
+        <v>223.0496421685303</v>
       </c>
       <c r="AD4" t="n">
-        <v>138511.5250961993</v>
+        <v>180218.7148498606</v>
       </c>
       <c r="AE4" t="n">
-        <v>189517.5793337519</v>
+        <v>246583.1963460346</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.570502613315929e-06</v>
+        <v>5.250218714507456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>171430.2875517852</v>
+        <v>223049.6421685303</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.4960793318737</v>
+        <v>314.4847049356096</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.2127633163238</v>
+        <v>430.2918473788999</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.9798259052006</v>
+        <v>389.2253973834577</v>
       </c>
       <c r="AD2" t="n">
-        <v>254496.0793318737</v>
+        <v>314484.7049356095</v>
       </c>
       <c r="AE2" t="n">
-        <v>348212.7633163239</v>
+        <v>430291.8473788999</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.405142504849133e-06</v>
+        <v>3.479694050628183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.73726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>314979.8259052006</v>
+        <v>389225.3973834577</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.1758167976972</v>
+        <v>207.9152006387503</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.0008395852506</v>
+        <v>284.4787500850912</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.4316366494698</v>
+        <v>257.3284974454872</v>
       </c>
       <c r="AD3" t="n">
-        <v>165175.8167976972</v>
+        <v>207915.2006387503</v>
       </c>
       <c r="AE3" t="n">
-        <v>226000.8395852506</v>
+        <v>284478.7500850912</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.27401763816828e-06</v>
+        <v>4.736758705239596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH3" t="n">
-        <v>204431.6366494698</v>
+        <v>257328.4974454872</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.6310825543971</v>
+        <v>188.4557177414707</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.2588719407608</v>
+        <v>257.8534270932507</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.2418848643743</v>
+        <v>233.2442579111039</v>
       </c>
       <c r="AD4" t="n">
-        <v>145631.0825543971</v>
+        <v>188455.7177414708</v>
       </c>
       <c r="AE4" t="n">
-        <v>199258.8719407608</v>
+        <v>257853.4270932506</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.470206710493922e-06</v>
+        <v>5.020599661188532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>180241.8848643743</v>
+        <v>233244.2579111039</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4667808190645</v>
+        <v>188.9458269850586</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.1387994086549</v>
+        <v>258.524016182421</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.7515175002463</v>
+        <v>233.8508469187817</v>
       </c>
       <c r="AD2" t="n">
-        <v>148466.7808190645</v>
+        <v>188945.8269850586</v>
       </c>
       <c r="AE2" t="n">
-        <v>203138.7994086549</v>
+        <v>258524.016182421</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.421888844851804e-06</v>
+        <v>5.138597829251309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.687499999999998</v>
       </c>
       <c r="AH2" t="n">
-        <v>183751.5175002463</v>
+        <v>233850.8469187818</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4399444968015</v>
+        <v>171.8232709381479</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7878837166285</v>
+        <v>235.0961796051897</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5793558672438</v>
+        <v>212.6589301832987</v>
       </c>
       <c r="AD3" t="n">
-        <v>139439.9444968015</v>
+        <v>171823.2709381478</v>
       </c>
       <c r="AE3" t="n">
-        <v>190787.8837166285</v>
+        <v>235096.1796051897</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.648854074263973e-06</v>
+        <v>5.479428022180445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>172579.3558672438</v>
+        <v>212658.9301832987</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.2549591991858</v>
+        <v>173.3753269589953</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.6935580870269</v>
+        <v>237.2197711247912</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.1621027187807</v>
+        <v>214.5798491087496</v>
       </c>
       <c r="AD2" t="n">
-        <v>134254.9591991858</v>
+        <v>173375.3269589953</v>
       </c>
       <c r="AE2" t="n">
-        <v>183693.5580870269</v>
+        <v>237219.7711247912</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.652289651798833e-06</v>
+        <v>5.601687379420833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.450231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>166162.1027187807</v>
+        <v>214579.8491087496</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1276761198901</v>
+        <v>176.9665549512947</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.4146714119443</v>
+        <v>242.1334476976501</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.2915869825114</v>
+        <v>219.0245712858848</v>
       </c>
       <c r="AD2" t="n">
-        <v>131127.6761198901</v>
+        <v>176966.5549512947</v>
       </c>
       <c r="AE2" t="n">
-        <v>179414.6714119443</v>
+        <v>242133.4476976501</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.599898632915836e-06</v>
+        <v>5.624770604614515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.918981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>162291.5869825114</v>
+        <v>219024.5712858848</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.1983261436773</v>
+        <v>195.8636117526443</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.2444643459486</v>
+        <v>267.9892344925516</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.3699049417721</v>
+        <v>242.4127180779138</v>
       </c>
       <c r="AD2" t="n">
-        <v>152198.3261436773</v>
+        <v>195863.6117526443</v>
       </c>
       <c r="AE2" t="n">
-        <v>208244.4643459487</v>
+        <v>267989.2344925516</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189830273824434e-06</v>
+        <v>5.198390265877562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>188369.9049417721</v>
+        <v>242412.7180779138</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.7724865523362</v>
+        <v>233.4703195330911</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.4456235707016</v>
+        <v>319.4443911685876</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.4480061633362</v>
+        <v>288.9570668185713</v>
       </c>
       <c r="AD2" t="n">
-        <v>183772.4865523362</v>
+        <v>233470.3195330911</v>
       </c>
       <c r="AE2" t="n">
-        <v>251445.6235707016</v>
+        <v>319444.3911685876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.985743728720984e-06</v>
+        <v>4.411080472770301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7349537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>227448.0061633362</v>
+        <v>288957.0668185713</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4467940065056</v>
+        <v>177.8474313480394</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.6925231673275</v>
+        <v>243.3387016451995</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.8748507808922</v>
+        <v>220.114797488265</v>
       </c>
       <c r="AD3" t="n">
-        <v>136446.7940065056</v>
+        <v>177847.4313480394</v>
       </c>
       <c r="AE3" t="n">
-        <v>186692.5231673275</v>
+        <v>243338.7016451995</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.594292375382989e-06</v>
+        <v>5.310138562116593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.917824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>168874.8507808922</v>
+        <v>220114.797488265</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.6799077871175</v>
+        <v>293.7685534853397</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.0453561160988</v>
+        <v>401.9470950325409</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.3554133570614</v>
+        <v>363.5858284189254</v>
       </c>
       <c r="AD2" t="n">
-        <v>242679.9077871175</v>
+        <v>293768.5534853397</v>
       </c>
       <c r="AE2" t="n">
-        <v>332045.3561160988</v>
+        <v>401947.0950325409</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508578723643966e-06</v>
+        <v>3.642880295741447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>300355.4133570615</v>
+        <v>363585.8284189254</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.3989468456944</v>
+        <v>194.5149677170716</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.4649153762948</v>
+        <v>266.1439602251064</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.5194918737874</v>
+        <v>240.7435541966942</v>
       </c>
       <c r="AD3" t="n">
-        <v>160398.9468456944</v>
+        <v>194514.9677170716</v>
       </c>
       <c r="AE3" t="n">
-        <v>219464.9153762948</v>
+        <v>266143.9602251063</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.345020731463801e-06</v>
+        <v>4.857535462867765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.236111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>198519.4918737874</v>
+        <v>240743.5541966942</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.5358166685498</v>
+        <v>186.0953900175108</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.3920367191389</v>
+        <v>254.6239225710203</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.6486563726746</v>
+        <v>230.322972767836</v>
       </c>
       <c r="AD4" t="n">
-        <v>143535.8166685498</v>
+        <v>186095.3900175108</v>
       </c>
       <c r="AE4" t="n">
-        <v>196392.0367191389</v>
+        <v>254623.9225710203</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.504302349289862e-06</v>
+        <v>5.088839293034002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.813657407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>177648.6563726746</v>
+        <v>230322.972767836</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.1463120279273</v>
+        <v>219.8707084737337</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.8016904420213</v>
+        <v>300.8368033446882</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.5834238455267</v>
+        <v>272.1253610606654</v>
       </c>
       <c r="AD2" t="n">
-        <v>170146.3120279273</v>
+        <v>219870.7084737337</v>
       </c>
       <c r="AE2" t="n">
-        <v>232801.6904420213</v>
+        <v>300836.8033446883</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749431409448849e-06</v>
+        <v>4.583138351062365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.43865740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>210583.4238455266</v>
+        <v>272125.3610606654</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.1852161166236</v>
+        <v>175.7273287951102</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.334620758389</v>
+        <v>240.4378837999598</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.5511060755436</v>
+        <v>217.4908296268506</v>
       </c>
       <c r="AD2" t="n">
-        <v>136185.2161166236</v>
+        <v>175727.3287951102</v>
       </c>
       <c r="AE2" t="n">
-        <v>186334.620758389</v>
+        <v>240437.8837999598</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646907877610744e-06</v>
+        <v>5.550253247745343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.328703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>168551.1060755436</v>
+        <v>217490.8296268506</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.0787538078149</v>
+        <v>175.6208664863015</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.1889543306915</v>
+        <v>240.2922173722623</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.4193418472614</v>
+        <v>217.3590653985684</v>
       </c>
       <c r="AD3" t="n">
-        <v>136078.7538078149</v>
+        <v>175620.8664863015</v>
       </c>
       <c r="AE3" t="n">
-        <v>186188.9543306915</v>
+        <v>240292.2173722623</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.660605460192889e-06</v>
+        <v>5.57109968937869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.293981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>168419.3418472614</v>
+        <v>217359.0653985684</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.4015798093235</v>
+        <v>206.1474342284583</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.3097384977187</v>
+        <v>282.060014094181</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.7110546832744</v>
+        <v>255.1406022228314</v>
       </c>
       <c r="AD2" t="n">
-        <v>165401.5798093235</v>
+        <v>206147.4342284583</v>
       </c>
       <c r="AE2" t="n">
-        <v>226309.7384977186</v>
+        <v>282060.0140941811</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269790932493601e-06</v>
+        <v>4.881505850333748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>204711.0546832744</v>
+        <v>255140.6022228314</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.3938067886822</v>
+        <v>174.0587809093575</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.4612443026989</v>
+        <v>238.1549029715366</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.9975746710657</v>
+        <v>215.4257332845077</v>
       </c>
       <c r="AD3" t="n">
-        <v>141393.8067886822</v>
+        <v>174058.7809093575</v>
       </c>
       <c r="AE3" t="n">
-        <v>193461.2443026989</v>
+        <v>238154.9029715366</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.628692512949581e-06</v>
+        <v>5.417313857897644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.027777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>174997.5746710657</v>
+        <v>215425.7332845077</v>
       </c>
     </row>
   </sheetData>
